--- a/Data/4_PY_MaterialProductionRemelting_V2.0.xlsx
+++ b/Data/4_PY_MaterialProductionRemelting_V2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="178">
   <si>
     <t>Date created</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>World</t>
+  </si>
+  <si>
+    <t>#1 Copper scrap</t>
+  </si>
+  <si>
+    <t>remelting of #1 Copper scrap</t>
   </si>
 </sst>
 </file>
@@ -815,8 +821,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1124,7 +1130,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.109375" customWidth="1"/>
@@ -1666,10 +1672,10 @@
   <dimension ref="A1:N484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.21875" customWidth="1"/>
@@ -2291,11 +2297,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="G20" s="28"/>
-      <c r="I20" s="9"/>
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20">
+        <v>2015</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="28">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4622,7 +4650,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="24"/>
     <col min="2" max="2" width="45.44140625" style="24" bestFit="1" customWidth="1"/>
@@ -7108,7 +7136,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
